--- a/ABMdev/Data/NASS_Data/ID_yield_area_val_processing.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_yield_area_val_processing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kek25/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B091C-FE7F-A940-88B6-4EEFC0AC3054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A518797-5F3E-E844-A463-8FD0F749033E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1480" windowWidth="25600" windowHeight="16060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14540" yWindow="3060" windowWidth="35560" windowHeight="24460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="1990" sheetId="3" r:id="rId3"/>
     <sheet name="2005" sheetId="4" r:id="rId4"/>
     <sheet name="2010" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="2015" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="155">
   <si>
     <t>Data Processing Notes</t>
   </si>
@@ -468,6 +468,39 @@
   </si>
   <si>
     <t>Acreage by District 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINT, PEPPERMINT, OIL </t>
+  </si>
+  <si>
+    <t>ACRES HARVESTED</t>
+  </si>
+  <si>
+    <t>PEPPERMINT</t>
+  </si>
+  <si>
+    <t>ACRES</t>
+  </si>
+  <si>
+    <t>MINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINT, SPEARMINT, OIL </t>
+  </si>
+  <si>
+    <t>SPEARMINT</t>
+  </si>
+  <si>
+    <t>WHEAT</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>yield</t>
   </si>
 </sst>
 </file>
@@ -3324,7 +3357,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3813,7 +3846,7 @@
         <v>83.8</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F30" si="6">(C3*H3)+(D3*I3)+(E3*J3)</f>
+        <f>(C3*H3)+(D3*I3)+(E3*J3)</f>
         <v>248503.41685649203</v>
       </c>
     </row>
@@ -3834,7 +3867,7 @@
         <v>1600</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F23:F30" si="6">(C4*H4)+(D4*I4)+(E4*J4)</f>
         <v>46697.303921568629</v>
       </c>
       <c r="G24">
@@ -4510,10 +4543,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4559,22 +4592,899 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
+      <c r="C3">
+        <v>154000</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3">
+        <v>378000</v>
+      </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
+        <v>537000</v>
+      </c>
+      <c r="H3">
+        <f>C3/$F3</f>
+        <v>0.28677839851024206</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:J3" si="0">D3/$F3</f>
+        <v>9.3109869646182501E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0.7039106145251397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>32900</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="H3" t="e">
-        <f>C3/$F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" t="e">
-        <f t="shared" ref="I3:J3" si="0">D3/$F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F9" si="1">SUM(C4:E4)</f>
+        <v>32900</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H9" si="2">C4/$F4</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I9" si="3">D4/$F4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="4">E4/$F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>318000</v>
+      </c>
+      <c r="D5">
+        <v>185000</v>
+      </c>
+      <c r="E5">
+        <v>447000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>950000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.33473684210526317</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.19473684210526315</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.47052631578947368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>106000</v>
+      </c>
+      <c r="D6">
+        <v>27000</v>
+      </c>
+      <c r="E6">
+        <v>39000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>172000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.61627906976744184</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.15697674418604651</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.22674418604651161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7">
+        <v>42800</v>
+      </c>
+      <c r="D7">
+        <v>16300</v>
+      </c>
+      <c r="E7">
+        <v>251000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>310100</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.1380199935504676</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>5.2563689132537894E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.80941631731699448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>95200</v>
+      </c>
+      <c r="D8">
+        <v>48200</v>
+      </c>
+      <c r="E8">
+        <v>251600</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>395000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.24101265822784809</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.1220253164556962</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.63696202531645574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>16000</v>
+      </c>
+      <c r="E9">
+        <v>220000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>236000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.93220338983050843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14">
+        <v>118.9</v>
+      </c>
+      <c r="D14">
+        <v>91.2</v>
+      </c>
+      <c r="E14">
+        <v>93</v>
+      </c>
+      <c r="G14">
+        <f>(C14*H3)+(D14*I3)+(E14*J3)</f>
+        <v>100.41080074487897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>2490</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G20" si="5">(C15*H4)+(D15*I4)+(E15*J4)</f>
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D16">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E16">
+        <v>3.85</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>4.3125263157894738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>37.4</v>
+      </c>
+      <c r="D17">
+        <v>41.2</v>
+      </c>
+      <c r="E17">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>38.291279069767441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18">
+        <v>93.7</v>
+      </c>
+      <c r="D18">
+        <v>76.2</v>
+      </c>
+      <c r="E18">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>80.557949048693956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>109.3</v>
+      </c>
+      <c r="D19">
+        <v>106.1</v>
+      </c>
+      <c r="E19">
+        <v>85.3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>93.622430379746831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20">
+        <v>386</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>393.72881355932202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31">
+        <v>17200</v>
+      </c>
+      <c r="O31">
+        <f>N31/Q31</f>
+        <v>0.92972972972972978</v>
+      </c>
+      <c r="Q31">
+        <f>N31+N34</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" t="s">
+        <v>148</v>
+      </c>
+      <c r="N32">
+        <v>21.4</v>
+      </c>
+      <c r="P32">
+        <f>(N32*O31)+(N35*O34)</f>
+        <v>21.245405405405407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" t="s">
+        <v>148</v>
+      </c>
+      <c r="N33">
+        <v>105</v>
+      </c>
+      <c r="P33">
+        <f>(N33*O31)+(N36*O34)</f>
+        <v>107.81081081081082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" t="s">
+        <v>147</v>
+      </c>
+      <c r="M34" t="s">
+        <v>148</v>
+      </c>
+      <c r="N34">
+        <v>1300</v>
+      </c>
+      <c r="O34">
+        <f>N34/Q31</f>
+        <v>7.0270270270270274E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36">
+        <v>3.53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" t="s">
+        <v>148</v>
+      </c>
+      <c r="N36">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39">
+        <v>2015</v>
+      </c>
+      <c r="H39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N39">
+        <f>0.326*2000</f>
+        <v>652</v>
+      </c>
+      <c r="O39" s="1">
+        <v>6000</v>
+      </c>
+      <c r="P39" s="1">
+        <f>O39/Q39</f>
+        <v>0.71925197794293938</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>O39+O41+O43+O45</f>
+        <v>8342</v>
+      </c>
+      <c r="R39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40">
+        <v>2015</v>
+      </c>
+      <c r="H40" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40">
+        <f>20000/2000</f>
+        <v>10</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
+        <f>(N40*P39)+(N42*P41)+(N44*P43)+(N46*P45)</f>
+        <v>8.7496355789978413</v>
+      </c>
+      <c r="R40" t="s">
+        <v>154</v>
+      </c>
+      <c r="S40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41">
+        <v>2015</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s">
+        <v>115</v>
+      </c>
+      <c r="J41" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" t="s">
+        <v>118</v>
+      </c>
+      <c r="N41">
+        <v>2010</v>
+      </c>
+      <c r="O41" s="1">
+        <v>952</v>
+      </c>
+      <c r="P41" s="1">
+        <f>O41/Q39</f>
+        <v>0.11412131383361304</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>(N39*P39)+(N41*P41)+(N43*P43)+(N45*P45)</f>
+        <v>851.32222488611853</v>
+      </c>
+      <c r="S41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42">
+        <v>2015</v>
+      </c>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" t="s">
+        <v>118</v>
+      </c>
+      <c r="N42">
+        <v>2.78</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43">
+        <v>2015</v>
+      </c>
+      <c r="H43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43">
+        <v>943</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1310</v>
+      </c>
+      <c r="P43" s="1">
+        <f>O43/Q39</f>
+        <v>0.15703668185087508</v>
+      </c>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44">
+        <v>2015</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" t="s">
+        <v>111</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44">
+        <v>7.59</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45">
+        <v>2015</v>
+      </c>
+      <c r="H45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N45">
+        <v>511</v>
+      </c>
+      <c r="O45" s="1">
+        <v>80</v>
+      </c>
+      <c r="P45" s="1">
+        <f>O45/Q39</f>
+        <v>9.5900263725725247E-3</v>
+      </c>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46">
+        <v>2015</v>
+      </c>
+      <c r="H46" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ABMdev/Data/NASS_Data/ID_yield_area_val_processing.xlsx
+++ b/ABMdev/Data/NASS_Data/ID_yield_area_val_processing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kek25/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendrakaiser/Documents/GitRepos/IM3-BoiseState/ABMdev/Data/NASS_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A518797-5F3E-E844-A463-8FD0F749033E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="3060" windowWidth="35560" windowHeight="24460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11120" yWindow="10260" windowWidth="35560" windowHeight="16860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="2010" sheetId="5" r:id="rId5"/>
     <sheet name="2015" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="166">
   <si>
     <t>Data Processing Notes</t>
   </si>
@@ -501,12 +500,45 @@
   </si>
   <si>
     <t>yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAY, (EXCL ALFALFA) </t>
+  </si>
+  <si>
+    <t>(EXCL ALFALFA)</t>
+  </si>
+  <si>
+    <t>HAY</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>PRICE RECEIVED, MEASURED IN $ / BU</t>
+  </si>
+  <si>
+    <t>YIELD, MEASURED IN BU / ACRE</t>
+  </si>
+  <si>
+    <t>OATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAY &amp; HAYLAGE, (EXCL ALFALFA) </t>
+  </si>
+  <si>
+    <t>HAY &amp; HAYLAGE</t>
+  </si>
+  <si>
+    <t>YIELD, MEASURED IN TONS / ACRE, DRY BASIS</t>
+  </si>
+  <si>
+    <t>TONS / ACRE, DRY BASIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -864,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1049,7 +1081,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:A36">
+  <sortState ref="A12:A36">
     <sortCondition ref="A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1665,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -2378,15 +2410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="11" max="11" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -3353,11 +3386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3867,7 +3900,7 @@
         <v>1600</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F23:F30" si="6">(C4*H4)+(D4*I4)+(E4*J4)</f>
+        <f t="shared" ref="F24:F30" si="6">(C4*H4)+(D4*I4)+(E4*J4)</f>
         <v>46697.303921568629</v>
       </c>
       <c r="G24">
@@ -4534,6 +4567,93 @@
       <c r="G74" s="3">
         <f>G73*30*30*0.000247105</f>
         <v>3372.8349870000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76">
+        <v>2010</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77">
+        <v>2010</v>
+      </c>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="s">
+        <v>157</v>
+      </c>
+      <c r="I77">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78">
+        <v>2010</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" t="s">
+        <v>111</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>157</v>
+      </c>
+      <c r="I78">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -4542,11 +4662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:S46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5486,6 +5606,358 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48">
+        <v>2015</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" t="s">
+        <v>158</v>
+      </c>
+      <c r="K48">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49">
+        <v>2015</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>176</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50">
+        <v>2015</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J50" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51">
+        <v>2015</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" t="s">
+        <v>158</v>
+      </c>
+      <c r="K51">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52">
+        <v>2015</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>158</v>
+      </c>
+      <c r="K52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53">
+        <v>2015</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K53">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>248</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54">
+        <v>2015</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55">
+        <v>2015</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" t="s">
+        <v>161</v>
+      </c>
+      <c r="K55">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>197</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56">
+        <v>2015</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57">
+        <v>2015</v>
+      </c>
+      <c r="E57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" t="s">
+        <v>165</v>
+      </c>
+      <c r="J57" t="s">
+        <v>163</v>
+      </c>
+      <c r="K57">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58">
+        <v>2015</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" t="s">
+        <v>111</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>157</v>
+      </c>
+      <c r="K58">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
